--- a/tree-recycling.xlsx
+++ b/tree-recycling.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="15980" tabRatio="728" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="15980" tabRatio="728"/>
   </bookViews>
   <sheets>
     <sheet name="zone-mapping" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="229">
   <si>
     <t>Woodview Way</t>
   </si>
@@ -704,6 +704,18 @@
   </si>
   <si>
     <t>forest ln</t>
+  </si>
+  <si>
+    <t>Michaels Way</t>
+  </si>
+  <si>
+    <t>Cider Mill Rd</t>
+  </si>
+  <si>
+    <t>Castle Hill Rd</t>
+  </si>
+  <si>
+    <t>leonard st</t>
   </si>
 </sst>
 </file>
@@ -1438,11 +1450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3088,6 +3100,38 @@
       </c>
       <c r="B205">
         <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>225</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>226</v>
+      </c>
+      <c r="B207">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>227</v>
+      </c>
+      <c r="B208">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>228</v>
+      </c>
+      <c r="B209">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
